--- a/SF-36/Check the Scoring of SF-36 DATASET 3.xlsx
+++ b/SF-36/Check the Scoring of SF-36 DATASET 3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/CSU Classes/Consulting/SF-36/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7D004FBA-E17C-4B62-B078-8226B6DFADE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{64CEB6A7-1292-4429-9D5A-DA4D9D585AF7}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{7D004FBA-E17C-4B62-B078-8226B6DFADE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{86B7559C-517A-4C86-AB56-C23FCD85A0D0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SF-36 Gold Standard" sheetId="1" r:id="rId1"/>
@@ -2496,7 +2496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BQ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -3620,6 +3620,9 @@
       <c r="AL6" s="1">
         <v>27</v>
       </c>
+      <c r="AM6" s="1">
+        <v>18</v>
+      </c>
       <c r="AN6" s="1">
         <v>9.4</v>
       </c>
@@ -3641,6 +3644,9 @@
       <c r="AT6" s="1">
         <v>85</v>
       </c>
+      <c r="AU6" s="1">
+        <v>87.5</v>
+      </c>
       <c r="AV6" s="1">
         <v>74</v>
       </c>
@@ -3662,6 +3668,9 @@
       <c r="BB6" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="BC6" s="1">
+        <v>0.2</v>
+      </c>
       <c r="BD6" s="1">
         <v>0.11</v>
       </c>
@@ -3682,6 +3691,9 @@
       </c>
       <c r="BJ6" s="1">
         <v>50.72</v>
+      </c>
+      <c r="BK6" s="1">
+        <v>51.96</v>
       </c>
       <c r="BL6" s="1">
         <v>51.13</v>
@@ -3902,8 +3914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BU7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AU1" sqref="AU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3911,7 +3923,7 @@
     <row r="1" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>AVERAGE(A2:BU7)*100</f>
-        <v>99.086757990867582</v>
+        <v>100</v>
       </c>
       <c r="B1" t="str">
         <f>'SF-36 Gold Standard'!B1</f>
@@ -5533,7 +5545,7 @@
       </c>
       <c r="AM6">
         <f>IF('SF-36 Gold Standard'!AM6='Comparison File'!AM6,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN6">
         <f>IF('SF-36 Gold Standard'!AN6='Comparison File'!AN6,1,0)</f>
@@ -5565,7 +5577,7 @@
       </c>
       <c r="AU6">
         <f>IF('SF-36 Gold Standard'!AU6='Comparison File'!AU6,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV6">
         <f>IF('SF-36 Gold Standard'!AV6='Comparison File'!AV6,1,0)</f>
@@ -5597,7 +5609,7 @@
       </c>
       <c r="BC6">
         <f>IF('SF-36 Gold Standard'!BC6='Comparison File'!BC6,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD6">
         <f>IF('SF-36 Gold Standard'!BD6='Comparison File'!BD6,1,0)</f>
@@ -5629,7 +5641,7 @@
       </c>
       <c r="BK6">
         <f>IF('SF-36 Gold Standard'!BK6='Comparison File'!BK6,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL6">
         <f>IF('SF-36 Gold Standard'!BL6='Comparison File'!BL6,1,0)</f>
